--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1855.875925979255</v>
+        <v>2038.724683838407</v>
       </c>
       <c r="AB2" t="n">
-        <v>2539.291317392191</v>
+        <v>2789.473054612959</v>
       </c>
       <c r="AC2" t="n">
-        <v>2296.944917978027</v>
+        <v>2523.249661330718</v>
       </c>
       <c r="AD2" t="n">
-        <v>1855875.925979255</v>
+        <v>2038724.683838407</v>
       </c>
       <c r="AE2" t="n">
-        <v>2539291.317392191</v>
+        <v>2789473.054612959</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04993534252671e-07</v>
+        <v>9.343702529614074e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2296944.917978027</v>
+        <v>2523249.661330719</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1287.078649202159</v>
+        <v>1433.255264365705</v>
       </c>
       <c r="AB3" t="n">
-        <v>1761.037789740932</v>
+        <v>1961.043083464819</v>
       </c>
       <c r="AC3" t="n">
-        <v>1592.966814720118</v>
+        <v>1773.88388392019</v>
       </c>
       <c r="AD3" t="n">
-        <v>1287078.649202159</v>
+        <v>1433255.264365705</v>
       </c>
       <c r="AE3" t="n">
-        <v>1761037.789740932</v>
+        <v>1961043.083464819</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.547993351694096e-07</v>
+        <v>1.211550205977645e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.20963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1592966.814720118</v>
+        <v>1773883.88392019</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1135.364719929356</v>
+        <v>1269.345734479223</v>
       </c>
       <c r="AB4" t="n">
-        <v>1553.456098563701</v>
+        <v>1736.774833496027</v>
       </c>
       <c r="AC4" t="n">
-        <v>1405.196428806109</v>
+        <v>1571.019480965954</v>
       </c>
       <c r="AD4" t="n">
-        <v>1135364.719929356</v>
+        <v>1269345.734479223</v>
       </c>
       <c r="AE4" t="n">
-        <v>1553456.098563701</v>
+        <v>1736774.833496027</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.142501570664078e-07</v>
+        <v>1.321549791570098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1405196.428806109</v>
+        <v>1571019.480965954</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1058.406341207522</v>
+        <v>1180.277095998283</v>
       </c>
       <c r="AB5" t="n">
-        <v>1448.158249632437</v>
+        <v>1614.9071928954</v>
       </c>
       <c r="AC5" t="n">
-        <v>1309.948058790386</v>
+        <v>1460.782716941942</v>
       </c>
       <c r="AD5" t="n">
-        <v>1058406.341207522</v>
+        <v>1180277.095998283</v>
       </c>
       <c r="AE5" t="n">
-        <v>1448158.249632437</v>
+        <v>1614907.1928954</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.468582443024134e-07</v>
+        <v>1.381883290224458e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.34505208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1309948.058790386</v>
+        <v>1460782.716941942</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1006.878469734033</v>
+        <v>1140.85939477535</v>
       </c>
       <c r="AB6" t="n">
-        <v>1377.655542633159</v>
+        <v>1560.974155095936</v>
       </c>
       <c r="AC6" t="n">
-        <v>1246.174031195947</v>
+        <v>1411.996972574566</v>
       </c>
       <c r="AD6" t="n">
-        <v>1006878.469734033</v>
+        <v>1140859.39477535</v>
       </c>
       <c r="AE6" t="n">
-        <v>1377655.542633159</v>
+        <v>1560974.155095936</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.670486490691599e-07</v>
+        <v>1.41924082518224e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.81119791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1246174.031195947</v>
+        <v>1411996.972574566</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>977.825502626661</v>
+        <v>1099.61091656285</v>
       </c>
       <c r="AB7" t="n">
-        <v>1337.903991310403</v>
+        <v>1504.536167451168</v>
       </c>
       <c r="AC7" t="n">
-        <v>1210.216312139783</v>
+        <v>1360.945347259401</v>
       </c>
       <c r="AD7" t="n">
-        <v>977825.502626661</v>
+        <v>1099610.91656285</v>
       </c>
       <c r="AE7" t="n">
-        <v>1337903.991310403</v>
+        <v>1504536.167451168</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.803066258408501e-07</v>
+        <v>1.443771553339489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.47265625</v>
       </c>
       <c r="AH7" t="n">
-        <v>1210216.312139783</v>
+        <v>1360945.347259401</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>952.2829567529324</v>
+        <v>1074.068370689122</v>
       </c>
       <c r="AB8" t="n">
-        <v>1302.955553188373</v>
+        <v>1469.587729329138</v>
       </c>
       <c r="AC8" t="n">
-        <v>1178.603303901679</v>
+        <v>1329.332339021297</v>
       </c>
       <c r="AD8" t="n">
-        <v>952282.9567529324</v>
+        <v>1074068.370689122</v>
       </c>
       <c r="AE8" t="n">
-        <v>1302955.553188373</v>
+        <v>1469587.729329138</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.9004003484401e-07</v>
+        <v>1.461780908342258e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.23177083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1178603.303901679</v>
+        <v>1329332.339021297</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>931.9390745778385</v>
+        <v>1041.699569609493</v>
       </c>
       <c r="AB9" t="n">
-        <v>1275.120156087671</v>
+        <v>1425.29930768127</v>
       </c>
       <c r="AC9" t="n">
-        <v>1153.424478033043</v>
+        <v>1289.270742176311</v>
       </c>
       <c r="AD9" t="n">
-        <v>931939.0745778385</v>
+        <v>1041699.569609493</v>
       </c>
       <c r="AE9" t="n">
-        <v>1275120.156087671</v>
+        <v>1425299.30768127</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.978827816666999e-07</v>
+        <v>1.476292043308518e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.04296875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1153424.478033043</v>
+        <v>1289270.742176311</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>901.3356682405928</v>
+        <v>1023.206333522803</v>
       </c>
       <c r="AB10" t="n">
-        <v>1233.247225410051</v>
+        <v>1399.996046203465</v>
       </c>
       <c r="AC10" t="n">
-        <v>1115.547841090267</v>
+        <v>1266.382388460597</v>
       </c>
       <c r="AD10" t="n">
-        <v>901335.6682405928</v>
+        <v>1023206.333522803</v>
       </c>
       <c r="AE10" t="n">
-        <v>1233247.225410051</v>
+        <v>1399996.046203465</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.046518191029501e-07</v>
+        <v>1.488816534797254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.88671875</v>
       </c>
       <c r="AH10" t="n">
-        <v>1115547.841090267</v>
+        <v>1266382.388460597</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>883.0369745175484</v>
+        <v>1004.907639799759</v>
       </c>
       <c r="AB11" t="n">
-        <v>1208.21014537679</v>
+        <v>1374.958966170204</v>
       </c>
       <c r="AC11" t="n">
-        <v>1092.900264835618</v>
+        <v>1243.734812205948</v>
       </c>
       <c r="AD11" t="n">
-        <v>883036.9745175485</v>
+        <v>1004907.639799759</v>
       </c>
       <c r="AE11" t="n">
-        <v>1208210.14537679</v>
+        <v>1374958.966170204</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.093434622915237e-07</v>
+        <v>1.497497303035999e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1092900.264835618</v>
+        <v>1243734.812205948</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>862.1220739042324</v>
+        <v>983.9927391864425</v>
       </c>
       <c r="AB12" t="n">
-        <v>1179.593455657357</v>
+        <v>1346.342276450771</v>
       </c>
       <c r="AC12" t="n">
-        <v>1067.014711819231</v>
+        <v>1217.849259189562</v>
       </c>
       <c r="AD12" t="n">
-        <v>862122.0739042324</v>
+        <v>983992.7391864425</v>
       </c>
       <c r="AE12" t="n">
-        <v>1179593.455657357</v>
+        <v>1346342.276450771</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.1303142061886e-07</v>
+        <v>1.504320991502276e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.69140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>1067014.711819231</v>
+        <v>1217849.259189561</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>852.393689185989</v>
+        <v>974.2643544681991</v>
       </c>
       <c r="AB13" t="n">
-        <v>1166.282650499813</v>
+        <v>1333.031471293227</v>
       </c>
       <c r="AC13" t="n">
-        <v>1054.974271224091</v>
+        <v>1205.808818594421</v>
       </c>
       <c r="AD13" t="n">
-        <v>852393.6891859891</v>
+        <v>974264.3544681992</v>
       </c>
       <c r="AE13" t="n">
-        <v>1166282.650499813</v>
+        <v>1333031.471293227</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.158324016269636e-07</v>
+        <v>1.509503539704512e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>1054974.271224091</v>
+        <v>1205808.818594421</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>855.7904312903755</v>
+        <v>977.6610965725856</v>
       </c>
       <c r="AB14" t="n">
-        <v>1170.93022290072</v>
+        <v>1337.679043694134</v>
       </c>
       <c r="AC14" t="n">
-        <v>1059.178285837964</v>
+        <v>1210.012833208295</v>
       </c>
       <c r="AD14" t="n">
-        <v>855790.4312903755</v>
+        <v>977661.0965725856</v>
       </c>
       <c r="AE14" t="n">
-        <v>1170930.22290072</v>
+        <v>1337679.043694134</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.15225522408541e-07</v>
+        <v>1.508380654260694e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.63932291666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>1059178.285837964</v>
+        <v>1210012.833208295</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>858.9540835859301</v>
+        <v>980.82474886814</v>
       </c>
       <c r="AB15" t="n">
-        <v>1175.258871541987</v>
+        <v>1342.0076923354</v>
       </c>
       <c r="AC15" t="n">
-        <v>1063.093814328205</v>
+        <v>1213.928361698535</v>
       </c>
       <c r="AD15" t="n">
-        <v>858954.0835859301</v>
+        <v>980824.7488681399</v>
       </c>
       <c r="AE15" t="n">
-        <v>1175258.871541986</v>
+        <v>1342007.6923354</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.151788393917394e-07</v>
+        <v>1.508294278457323e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.63932291666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>1063093.814328205</v>
+        <v>1213928.361698535</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1452.713704899378</v>
+        <v>1617.320333902847</v>
       </c>
       <c r="AB2" t="n">
-        <v>1987.6669802488</v>
+        <v>2212.889031983297</v>
       </c>
       <c r="AC2" t="n">
-        <v>1797.966833361981</v>
+        <v>2001.694008580073</v>
       </c>
       <c r="AD2" t="n">
-        <v>1452713.704899378</v>
+        <v>1617320.333902847</v>
       </c>
       <c r="AE2" t="n">
-        <v>1987666.9802488</v>
+        <v>2212889.031983297</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.830646631588599e-07</v>
+        <v>1.111411233748806e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.95963541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1797966.833361981</v>
+        <v>2001694.008580073</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1067.58719928353</v>
+        <v>1208.581063166994</v>
       </c>
       <c r="AB3" t="n">
-        <v>1460.719904682904</v>
+        <v>1653.633929458533</v>
       </c>
       <c r="AC3" t="n">
-        <v>1321.31084711323</v>
+        <v>1495.813428120807</v>
       </c>
       <c r="AD3" t="n">
-        <v>1067587.19928353</v>
+        <v>1208581.063166993</v>
       </c>
       <c r="AE3" t="n">
-        <v>1460719.904682904</v>
+        <v>1653633.929458533</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.213273152998146e-07</v>
+        <v>1.374961187136211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1321310.84711323</v>
+        <v>1495813.428120807</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>963.5234026549595</v>
+        <v>1081.075272636111</v>
       </c>
       <c r="AB4" t="n">
-        <v>1318.335227165002</v>
+        <v>1479.174881695706</v>
       </c>
       <c r="AC4" t="n">
-        <v>1192.515163379486</v>
+        <v>1338.004507021652</v>
       </c>
       <c r="AD4" t="n">
-        <v>963523.4026549595</v>
+        <v>1081075.272636111</v>
       </c>
       <c r="AE4" t="n">
-        <v>1318335.227165002</v>
+        <v>1479174.881695706</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.734595308031888e-07</v>
+        <v>1.474333235575507e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.32552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1192515.163379485</v>
+        <v>1338004.507021652</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>904.199206848839</v>
+        <v>1021.836328176012</v>
       </c>
       <c r="AB5" t="n">
-        <v>1237.165245264261</v>
+        <v>1398.121544447615</v>
       </c>
       <c r="AC5" t="n">
-        <v>1119.091930628567</v>
+        <v>1264.686786521446</v>
       </c>
       <c r="AD5" t="n">
-        <v>904199.2068488391</v>
+        <v>1021836.328176012</v>
       </c>
       <c r="AE5" t="n">
-        <v>1237165.245264261</v>
+        <v>1398121.544447615</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.999723481365399e-07</v>
+        <v>1.524870757199568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.6484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1119091.930628567</v>
+        <v>1264686.786521446</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>866.9825013194434</v>
+        <v>984.4490304460237</v>
       </c>
       <c r="AB6" t="n">
-        <v>1186.243706873773</v>
+        <v>1346.966594282279</v>
       </c>
       <c r="AC6" t="n">
-        <v>1073.030272393238</v>
+        <v>1218.413993003467</v>
       </c>
       <c r="AD6" t="n">
-        <v>866982.5013194433</v>
+        <v>984449.0304460237</v>
       </c>
       <c r="AE6" t="n">
-        <v>1186243.706873773</v>
+        <v>1346966.594282279</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.187582970302987e-07</v>
+        <v>1.560679675071625e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.19921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1073030.272393238</v>
+        <v>1218413.993003467</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>827.1977455563372</v>
+        <v>944.7495260289379</v>
       </c>
       <c r="AB7" t="n">
-        <v>1131.808448859141</v>
+        <v>1292.647980920297</v>
       </c>
       <c r="AC7" t="n">
-        <v>1023.790239003158</v>
+        <v>1169.279471864099</v>
       </c>
       <c r="AD7" t="n">
-        <v>827197.7455563372</v>
+        <v>944749.5260289379</v>
       </c>
       <c r="AE7" t="n">
-        <v>1131808.448859141</v>
+        <v>1292647.980920297</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.306142107922982e-07</v>
+        <v>1.583278876453605e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1023790.239003159</v>
+        <v>1169279.471864099</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>805.6630243247267</v>
+        <v>923.2148047973276</v>
       </c>
       <c r="AB8" t="n">
-        <v>1102.343693225202</v>
+        <v>1263.183225286358</v>
       </c>
       <c r="AC8" t="n">
-        <v>997.1375582928782</v>
+        <v>1142.626791153818</v>
       </c>
       <c r="AD8" t="n">
-        <v>805663.0243247268</v>
+        <v>923214.8047973276</v>
       </c>
       <c r="AE8" t="n">
-        <v>1102343.693225202</v>
+        <v>1263183.225286358</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.375925388518048e-07</v>
+        <v>1.596580646717132e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.76953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>997137.5582928782</v>
+        <v>1142626.791153818</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>781.4675499439749</v>
+        <v>899.0193304165755</v>
       </c>
       <c r="AB9" t="n">
-        <v>1069.238377748462</v>
+        <v>1230.077909809618</v>
       </c>
       <c r="AC9" t="n">
-        <v>967.1917676616368</v>
+        <v>1112.681000522577</v>
       </c>
       <c r="AD9" t="n">
-        <v>781467.5499439748</v>
+        <v>899019.3304165755</v>
       </c>
       <c r="AE9" t="n">
-        <v>1069238.377748462</v>
+        <v>1230077.909809618</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.440154982422159e-07</v>
+        <v>1.608823798585985e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>967191.7676616368</v>
+        <v>1112681.000522577</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>774.7814178878597</v>
+        <v>892.3331983604604</v>
       </c>
       <c r="AB10" t="n">
-        <v>1060.090116897957</v>
+        <v>1220.929648959113</v>
       </c>
       <c r="AC10" t="n">
-        <v>958.9166039870391</v>
+        <v>1104.40583684798</v>
       </c>
       <c r="AD10" t="n">
-        <v>774781.4178878596</v>
+        <v>892333.1983604605</v>
       </c>
       <c r="AE10" t="n">
-        <v>1060090.116897957</v>
+        <v>1220929.648959113</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.465750234128309e-07</v>
+        <v>1.613702648578836e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>958916.6039870392</v>
+        <v>1104405.83684798</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>777.7216762289461</v>
+        <v>895.2734567015468</v>
       </c>
       <c r="AB11" t="n">
-        <v>1064.113108075275</v>
+        <v>1224.952640136431</v>
       </c>
       <c r="AC11" t="n">
-        <v>962.5556465326971</v>
+        <v>1108.044879393637</v>
       </c>
       <c r="AD11" t="n">
-        <v>777721.6762289461</v>
+        <v>895273.4567015468</v>
       </c>
       <c r="AE11" t="n">
-        <v>1064113.108075275</v>
+        <v>1224952.640136431</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.464059981657149e-07</v>
+        <v>1.613380460371761e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.57421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>962555.6465326971</v>
+        <v>1108044.879393637</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>753.378016017349</v>
+        <v>868.3052912198566</v>
       </c>
       <c r="AB2" t="n">
-        <v>1030.805038207276</v>
+        <v>1188.05360637289</v>
       </c>
       <c r="AC2" t="n">
-        <v>932.4264521047307</v>
+        <v>1074.66743762437</v>
       </c>
       <c r="AD2" t="n">
-        <v>753378.016017349</v>
+        <v>868305.2912198566</v>
       </c>
       <c r="AE2" t="n">
-        <v>1030805.038207276</v>
+        <v>1188053.60637289</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.288493617811171e-07</v>
+        <v>1.765232228283735e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>932426.4521047308</v>
+        <v>1074667.43762437</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>621.9059701378078</v>
+        <v>716.0770420670768</v>
       </c>
       <c r="AB3" t="n">
-        <v>850.9191848975771</v>
+        <v>979.7682000456841</v>
       </c>
       <c r="AC3" t="n">
-        <v>769.7086521635284</v>
+        <v>886.2604981466285</v>
       </c>
       <c r="AD3" t="n">
-        <v>621905.9701378078</v>
+        <v>716077.0420670768</v>
       </c>
       <c r="AE3" t="n">
-        <v>850919.1848975772</v>
+        <v>979768.2000456841</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.194618188277947e-07</v>
+        <v>1.958213048247267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.07552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>769708.6521635284</v>
+        <v>886260.4981466285</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>583.9765926778256</v>
+        <v>688.525676735163</v>
       </c>
       <c r="AB4" t="n">
-        <v>799.0225373307933</v>
+        <v>942.0712065181052</v>
       </c>
       <c r="AC4" t="n">
-        <v>722.7649478031161</v>
+        <v>852.1612527732591</v>
       </c>
       <c r="AD4" t="n">
-        <v>583976.5926778256</v>
+        <v>688525.676735163</v>
       </c>
       <c r="AE4" t="n">
-        <v>799022.5373307933</v>
+        <v>942071.2065181052</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.367328818569116e-07</v>
+        <v>1.994995892611414e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.72395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>722764.9478031162</v>
+        <v>852161.2527732591</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>587.4506724793948</v>
+        <v>691.9997565367322</v>
       </c>
       <c r="AB5" t="n">
-        <v>803.7759265808843</v>
+        <v>946.8245957681961</v>
       </c>
       <c r="AC5" t="n">
-        <v>727.0646802546021</v>
+        <v>856.4609852247452</v>
       </c>
       <c r="AD5" t="n">
-        <v>587450.6724793948</v>
+        <v>691999.7565367322</v>
       </c>
       <c r="AE5" t="n">
-        <v>803775.9265808843</v>
+        <v>946824.5957681962</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.366251061125802e-07</v>
+        <v>1.994766358481216e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.73046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>727064.6802546021</v>
+        <v>856460.9852247451</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>964.5831314084313</v>
+        <v>1096.159343108264</v>
       </c>
       <c r="AB2" t="n">
-        <v>1319.785194797435</v>
+        <v>1499.813572377928</v>
       </c>
       <c r="AC2" t="n">
-        <v>1193.826748136122</v>
+        <v>1356.673470031748</v>
       </c>
       <c r="AD2" t="n">
-        <v>964583.1314084313</v>
+        <v>1096159.343108264</v>
       </c>
       <c r="AE2" t="n">
-        <v>1319785.194797435</v>
+        <v>1499813.572377928</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.313798191842362e-07</v>
+        <v>1.484953894104625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.94270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1193826.748136122</v>
+        <v>1356673.470031748</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>771.3150041084625</v>
+        <v>891.8340789075233</v>
       </c>
       <c r="AB3" t="n">
-        <v>1055.347216637604</v>
+        <v>1220.246731704008</v>
       </c>
       <c r="AC3" t="n">
-        <v>954.6263594708315</v>
+        <v>1103.788096257221</v>
       </c>
       <c r="AD3" t="n">
-        <v>771315.0041084625</v>
+        <v>891834.0789075233</v>
       </c>
       <c r="AE3" t="n">
-        <v>1055347.216637604</v>
+        <v>1220246.731704008</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.400789344834511e-07</v>
+        <v>1.70565067888785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>954626.3594708315</v>
+        <v>1103788.096257221</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>709.3589866218663</v>
+        <v>808.1052405462202</v>
       </c>
       <c r="AB4" t="n">
-        <v>970.576260205858</v>
+        <v>1105.685241202425</v>
       </c>
       <c r="AC4" t="n">
-        <v>877.945824144147</v>
+        <v>1000.160193621047</v>
       </c>
       <c r="AD4" t="n">
-        <v>709358.9866218662</v>
+        <v>808105.2405462202</v>
       </c>
       <c r="AE4" t="n">
-        <v>970576.260205858</v>
+        <v>1105685.241202425</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.812954119232054e-07</v>
+        <v>1.789334377931808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>877945.824144147</v>
+        <v>1000160.193621047</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>659.0391096595096</v>
+        <v>768.6717292669415</v>
       </c>
       <c r="AB5" t="n">
-        <v>901.726384589667</v>
+        <v>1051.730571386378</v>
       </c>
       <c r="AC5" t="n">
-        <v>815.6668840253579</v>
+        <v>951.3548817663898</v>
       </c>
       <c r="AD5" t="n">
-        <v>659039.1096595096</v>
+        <v>768671.7292669415</v>
       </c>
       <c r="AE5" t="n">
-        <v>901726.384589667</v>
+        <v>1051730.571386378</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.003441779194398e-07</v>
+        <v>1.828009958665696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.63932291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>815666.8840253579</v>
+        <v>951354.8817663898</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>654.8485509089048</v>
+        <v>764.4811705163368</v>
       </c>
       <c r="AB6" t="n">
-        <v>895.9926772326853</v>
+        <v>1045.996864029397</v>
       </c>
       <c r="AC6" t="n">
-        <v>810.4803936512176</v>
+        <v>946.1683913922496</v>
       </c>
       <c r="AD6" t="n">
-        <v>654848.5509089049</v>
+        <v>764481.1705163368</v>
       </c>
       <c r="AE6" t="n">
-        <v>895992.6772326853</v>
+        <v>1045996.864029397</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031538064628626e-07</v>
+        <v>1.833714475986391e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.58072916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>810480.3936512176</v>
+        <v>946168.3913922496</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.8531825929135</v>
+        <v>704.2328142168278</v>
       </c>
       <c r="AB2" t="n">
-        <v>826.2185645458757</v>
+        <v>963.5624049705187</v>
       </c>
       <c r="AC2" t="n">
-        <v>747.3654243506548</v>
+        <v>871.601361408461</v>
       </c>
       <c r="AD2" t="n">
-        <v>603853.1825929135</v>
+        <v>704232.8142168279</v>
       </c>
       <c r="AE2" t="n">
-        <v>826218.5645458756</v>
+        <v>963562.4049705188</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.102207601339236e-07</v>
+        <v>2.026883844821084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.01302083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>747365.4243506548</v>
+        <v>871601.361408461</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.5503170931325</v>
+        <v>631.9688012746249</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.9730353606365</v>
+        <v>864.6875943997481</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.2556088280032</v>
+        <v>782.1630239868964</v>
       </c>
       <c r="AD3" t="n">
-        <v>541550.3170931325</v>
+        <v>631968.8012746249</v>
       </c>
       <c r="AE3" t="n">
-        <v>740973.0353606364</v>
+        <v>864687.5943997481</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.585763254646158e-07</v>
+        <v>2.134562243808105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.00390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>670255.6088280033</v>
+        <v>782163.0239868964</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1546.090615294607</v>
+        <v>1712.371839880893</v>
       </c>
       <c r="AB2" t="n">
-        <v>2115.429388550099</v>
+        <v>2342.942695838949</v>
       </c>
       <c r="AC2" t="n">
-        <v>1913.535776730672</v>
+        <v>2119.335533288805</v>
       </c>
       <c r="AD2" t="n">
-        <v>1546090.615294607</v>
+        <v>1712371.839880893</v>
       </c>
       <c r="AE2" t="n">
-        <v>2115429.388550099</v>
+        <v>2342942.695838949</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.625839067285142e-07</v>
+        <v>1.063713211394169e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.68880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1913535.776730672</v>
+        <v>2119335.533288805</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1127.643149293132</v>
+        <v>1258.207431550621</v>
       </c>
       <c r="AB3" t="n">
-        <v>1542.891104967565</v>
+        <v>1721.534916041868</v>
       </c>
       <c r="AC3" t="n">
-        <v>1395.639743370726</v>
+        <v>1557.234039844262</v>
       </c>
       <c r="AD3" t="n">
-        <v>1127643.149293132</v>
+        <v>1258207.431550621</v>
       </c>
       <c r="AE3" t="n">
-        <v>1542891.104967565</v>
+        <v>1721534.916041869</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.035768620005008e-07</v>
+        <v>1.330297568754204e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.14192708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1395639.743370726</v>
+        <v>1557234.039844262</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1001.072467442895</v>
+        <v>1131.636660191833</v>
       </c>
       <c r="AB4" t="n">
-        <v>1369.71151415568</v>
+        <v>1548.355202760435</v>
       </c>
       <c r="AC4" t="n">
-        <v>1238.988169646845</v>
+        <v>1400.582355339154</v>
       </c>
       <c r="AD4" t="n">
-        <v>1001072.467442895</v>
+        <v>1131636.660191833</v>
       </c>
       <c r="AE4" t="n">
-        <v>1369711.51415568</v>
+        <v>1548355.202760435</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.587344930089749e-07</v>
+        <v>1.434587613512331e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.53385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1238988.169646845</v>
+        <v>1400582.355339154</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>937.8303677680242</v>
+        <v>1068.309219662391</v>
       </c>
       <c r="AB5" t="n">
-        <v>1283.180883335996</v>
+        <v>1461.707804818554</v>
       </c>
       <c r="AC5" t="n">
-        <v>1160.715900786088</v>
+        <v>1322.204463446459</v>
       </c>
       <c r="AD5" t="n">
-        <v>937830.3677680242</v>
+        <v>1068309.219662391</v>
       </c>
       <c r="AE5" t="n">
-        <v>1283180.883335996</v>
+        <v>1461707.804818554</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.867081462189125e-07</v>
+        <v>1.487479180680335e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.8046875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1160715.900786088</v>
+        <v>1322204.463446459</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>904.196612829387</v>
+        <v>1022.798323904713</v>
       </c>
       <c r="AB6" t="n">
-        <v>1237.161696012407</v>
+        <v>1399.437789443881</v>
       </c>
       <c r="AC6" t="n">
-        <v>1119.088720112328</v>
+        <v>1265.87741094263</v>
       </c>
       <c r="AD6" t="n">
-        <v>904196.6128293871</v>
+        <v>1022798.323904713</v>
       </c>
       <c r="AE6" t="n">
-        <v>1237161.696012407</v>
+        <v>1399437.789443881</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.036502732271553e-07</v>
+        <v>1.519512738896714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.38802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1119088.720112328</v>
+        <v>1265877.41094263</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>875.3803189832439</v>
+        <v>982.2754814401214</v>
       </c>
       <c r="AB7" t="n">
-        <v>1197.733971486952</v>
+        <v>1343.99264864219</v>
       </c>
       <c r="AC7" t="n">
-        <v>1083.423922278424</v>
+        <v>1215.723876561308</v>
       </c>
       <c r="AD7" t="n">
-        <v>875380.3189832439</v>
+        <v>982275.4814401214</v>
       </c>
       <c r="AE7" t="n">
-        <v>1197733.971486952</v>
+        <v>1343992.64864219</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.168593891996835e-07</v>
+        <v>1.544488055472196e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.07552083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1083423.922278424</v>
+        <v>1215723.876561308</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>838.8893549394794</v>
+        <v>957.5763173608261</v>
       </c>
       <c r="AB8" t="n">
-        <v>1147.805424614559</v>
+        <v>1310.198162698682</v>
       </c>
       <c r="AC8" t="n">
-        <v>1038.260485844376</v>
+        <v>1185.15468892539</v>
       </c>
       <c r="AD8" t="n">
-        <v>838889.3549394794</v>
+        <v>957576.3173608261</v>
       </c>
       <c r="AE8" t="n">
-        <v>1147805.424614559</v>
+        <v>1310198.162698682</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.256893960726236e-07</v>
+        <v>1.561183511661241e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.8671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1038260.485844376</v>
+        <v>1185154.68892539</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>815.025407148354</v>
+        <v>933.7123695697009</v>
       </c>
       <c r="AB9" t="n">
-        <v>1115.153718443667</v>
+        <v>1277.546456527791</v>
       </c>
       <c r="AC9" t="n">
-        <v>1008.725012683477</v>
+        <v>1155.619215764491</v>
       </c>
       <c r="AD9" t="n">
-        <v>815025.407148354</v>
+        <v>933712.3695697009</v>
       </c>
       <c r="AE9" t="n">
-        <v>1115153.718443668</v>
+        <v>1277546.456527791</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.323896722905728e-07</v>
+        <v>1.573852150503877e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.71744791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1008725.012683477</v>
+        <v>1155619.215764491</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>797.1072230419794</v>
+        <v>915.794185463326</v>
       </c>
       <c r="AB10" t="n">
-        <v>1090.637268454833</v>
+        <v>1253.030006538957</v>
       </c>
       <c r="AC10" t="n">
-        <v>986.5483782725235</v>
+        <v>1133.442581353538</v>
       </c>
       <c r="AD10" t="n">
-        <v>797107.2230419794</v>
+        <v>915794.1854633261</v>
       </c>
       <c r="AE10" t="n">
-        <v>1090637.268454833</v>
+        <v>1253030.006538957</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.37055936085216e-07</v>
+        <v>1.582674952554999e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.61328125</v>
       </c>
       <c r="AH10" t="n">
-        <v>986548.3782725234</v>
+        <v>1133442.581353538</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>795.0720854952838</v>
+        <v>913.7590479166305</v>
       </c>
       <c r="AB11" t="n">
-        <v>1087.852703479513</v>
+        <v>1250.245441563636</v>
       </c>
       <c r="AC11" t="n">
-        <v>984.0295682702858</v>
+        <v>1130.9237713513</v>
       </c>
       <c r="AD11" t="n">
-        <v>795072.0854952838</v>
+        <v>913759.0479166305</v>
       </c>
       <c r="AE11" t="n">
-        <v>1087852.703479513</v>
+        <v>1250245.441563636</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.377977523807745e-07</v>
+        <v>1.584077551855433e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH11" t="n">
-        <v>984029.5682702858</v>
+        <v>1130923.7713513</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>798.568817534043</v>
+        <v>917.2557799553897</v>
       </c>
       <c r="AB12" t="n">
-        <v>1092.637086519873</v>
+        <v>1255.029824603997</v>
       </c>
       <c r="AC12" t="n">
-        <v>988.3573365081982</v>
+        <v>1135.251539589212</v>
       </c>
       <c r="AD12" t="n">
-        <v>798568.817534043</v>
+        <v>917255.7799553897</v>
       </c>
       <c r="AE12" t="n">
-        <v>1092637.086519873</v>
+        <v>1255029.824603996</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.375345272436409e-07</v>
+        <v>1.583579855329473e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.60026041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>988357.3365081982</v>
+        <v>1135251.539589212</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>519.0054740096052</v>
+        <v>616.8307716570008</v>
       </c>
       <c r="AB2" t="n">
-        <v>710.1261864454735</v>
+        <v>843.975074434182</v>
       </c>
       <c r="AC2" t="n">
-        <v>642.3527398794791</v>
+        <v>763.4272778566395</v>
       </c>
       <c r="AD2" t="n">
-        <v>519005.4740096052</v>
+        <v>616830.7716570008</v>
       </c>
       <c r="AE2" t="n">
-        <v>710126.1864454736</v>
+        <v>843975.074434182</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.569910536420103e-07</v>
+        <v>2.193965867889555e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>642352.7398794792</v>
+        <v>763427.2778566396</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>510.9880027098209</v>
+        <v>608.8133003572163</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.1563285072383</v>
+        <v>833.0052164959467</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.4298297865768</v>
+        <v>753.504367763737</v>
       </c>
       <c r="AD3" t="n">
-        <v>510988.0027098209</v>
+        <v>608813.3003572164</v>
       </c>
       <c r="AE3" t="n">
-        <v>699156.3285072383</v>
+        <v>833005.2164959466</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.684461938837076e-07</v>
+        <v>2.220227541503459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.25130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>632429.8297865768</v>
+        <v>753504.367763737</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1197.360380864877</v>
+        <v>1345.413818676847</v>
       </c>
       <c r="AB2" t="n">
-        <v>1638.281296911211</v>
+        <v>1840.854542182243</v>
       </c>
       <c r="AC2" t="n">
-        <v>1481.926029276247</v>
+        <v>1665.165968331946</v>
       </c>
       <c r="AD2" t="n">
-        <v>1197360.380864877</v>
+        <v>1345413.818676847</v>
       </c>
       <c r="AE2" t="n">
-        <v>1638281.296911211</v>
+        <v>1840854.542182243</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.515388491196358e-07</v>
+        <v>1.277007140050475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.85677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1481926.029276247</v>
+        <v>1665165.968331946</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.8056090355454</v>
+        <v>1045.068465514201</v>
       </c>
       <c r="AB3" t="n">
-        <v>1258.518613241985</v>
+        <v>1429.908779683289</v>
       </c>
       <c r="AC3" t="n">
-        <v>1138.407363136137</v>
+        <v>1293.440292639892</v>
       </c>
       <c r="AD3" t="n">
-        <v>919805.6090355455</v>
+        <v>1045068.465514201</v>
       </c>
       <c r="AE3" t="n">
-        <v>1258518.613241985</v>
+        <v>1429908.779683289</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.76179333066689e-07</v>
+        <v>1.521300766063415e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.86588541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1138407.363136137</v>
+        <v>1293440.292639892</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>834.3780386074592</v>
+        <v>948.3309452740292</v>
       </c>
       <c r="AB4" t="n">
-        <v>1141.632842583859</v>
+        <v>1297.548236732496</v>
       </c>
       <c r="AC4" t="n">
-        <v>1032.677006379412</v>
+        <v>1173.712054139134</v>
       </c>
       <c r="AD4" t="n">
-        <v>834378.0386074592</v>
+        <v>948330.9452740292</v>
       </c>
       <c r="AE4" t="n">
-        <v>1141632.842583859</v>
+        <v>1297548.236732496</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.234233009340451e-07</v>
+        <v>1.613898290174906e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.66796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1032677.006379412</v>
+        <v>1173712.054139134</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>792.1014240425288</v>
+        <v>894.6591295509927</v>
       </c>
       <c r="AB5" t="n">
-        <v>1083.788113423519</v>
+        <v>1224.112090626842</v>
       </c>
       <c r="AC5" t="n">
-        <v>980.3528969845488</v>
+        <v>1107.284550749525</v>
       </c>
       <c r="AD5" t="n">
-        <v>792101.4240425288</v>
+        <v>894659.1295509927</v>
       </c>
       <c r="AE5" t="n">
-        <v>1083788.11342352</v>
+        <v>1224112.090626842</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.464357655350478e-07</v>
+        <v>1.659002402762125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.13411458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>980352.8969845488</v>
+        <v>1107284.550749525</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>745.5259896607249</v>
+        <v>859.3935554727232</v>
       </c>
       <c r="AB6" t="n">
-        <v>1020.061549339188</v>
+        <v>1175.860176365628</v>
       </c>
       <c r="AC6" t="n">
-        <v>922.7083067356318</v>
+        <v>1063.637731463415</v>
       </c>
       <c r="AD6" t="n">
-        <v>745525.9896607249</v>
+        <v>859393.5554727232</v>
       </c>
       <c r="AE6" t="n">
-        <v>1020061.549339188</v>
+        <v>1175860.176365628</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.617359447022012e-07</v>
+        <v>1.688990542482277e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.79557291666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>922708.3067356318</v>
+        <v>1063637.731463415</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>717.5744312171216</v>
+        <v>831.4419970291201</v>
       </c>
       <c r="AB7" t="n">
-        <v>981.8169939409224</v>
+        <v>1137.615620967362</v>
       </c>
       <c r="AC7" t="n">
-        <v>888.1137580280056</v>
+        <v>1029.043182755789</v>
       </c>
       <c r="AD7" t="n">
-        <v>717574.4312171217</v>
+        <v>831441.9970291201</v>
       </c>
       <c r="AE7" t="n">
-        <v>981816.9939409224</v>
+        <v>1137615.620967362</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71040443903039e-07</v>
+        <v>1.707227232328353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH7" t="n">
-        <v>888113.7580280056</v>
+        <v>1029043.182755789</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>717.0953075280966</v>
+        <v>830.9628733400947</v>
       </c>
       <c r="AB8" t="n">
-        <v>981.1614357721529</v>
+        <v>1136.960062798593</v>
       </c>
       <c r="AC8" t="n">
-        <v>887.5207654107818</v>
+        <v>1028.450190138565</v>
       </c>
       <c r="AD8" t="n">
-        <v>717095.3075280966</v>
+        <v>830962.8733400947</v>
       </c>
       <c r="AE8" t="n">
-        <v>981161.435772153</v>
+        <v>1136960.062798593</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.719609424870793e-07</v>
+        <v>1.709031396831841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.57421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>887520.7654107818</v>
+        <v>1028450.190138565</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>720.1087365598972</v>
+        <v>833.9763023718954</v>
       </c>
       <c r="AB9" t="n">
-        <v>985.2845423165686</v>
+        <v>1141.083169343009</v>
       </c>
       <c r="AC9" t="n">
-        <v>891.2503684534148</v>
+        <v>1032.179793181198</v>
       </c>
       <c r="AD9" t="n">
-        <v>720108.7365598972</v>
+        <v>833976.3023718954</v>
       </c>
       <c r="AE9" t="n">
-        <v>985284.5423165685</v>
+        <v>1141083.169343009</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.719858208271882e-07</v>
+        <v>1.709080158034638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.57421875</v>
       </c>
       <c r="AH9" t="n">
-        <v>891250.3684534148</v>
+        <v>1032179.793181198</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1371.864143213206</v>
+        <v>1523.175296325245</v>
       </c>
       <c r="AB2" t="n">
-        <v>1877.045043118852</v>
+        <v>2084.075638183695</v>
       </c>
       <c r="AC2" t="n">
-        <v>1697.902498652853</v>
+        <v>1885.174384293972</v>
       </c>
       <c r="AD2" t="n">
-        <v>1371864.143213206</v>
+        <v>1523175.296325245</v>
       </c>
       <c r="AE2" t="n">
-        <v>1877045.043118852</v>
+        <v>2084075.638183695</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.049590216724763e-07</v>
+        <v>1.163156574992308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.23046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1697902.498652853</v>
+        <v>1885174.384293972</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1021.558999712572</v>
+        <v>1149.49305743803</v>
       </c>
       <c r="AB3" t="n">
-        <v>1397.742091409069</v>
+        <v>1572.78711324133</v>
       </c>
       <c r="AC3" t="n">
-        <v>1264.343547948333</v>
+        <v>1422.682518574154</v>
       </c>
       <c r="AD3" t="n">
-        <v>1021558.999712572</v>
+        <v>1149493.05743803</v>
       </c>
       <c r="AE3" t="n">
-        <v>1397742.091409069</v>
+        <v>1572787.11324133</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.390260141456256e-07</v>
+        <v>1.420927594512724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.47135416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1264343.547948333</v>
+        <v>1422682.518574154</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>924.3824176288467</v>
+        <v>1040.755938942872</v>
       </c>
       <c r="AB4" t="n">
-        <v>1264.780804673885</v>
+        <v>1424.008190573152</v>
       </c>
       <c r="AC4" t="n">
-        <v>1144.071899806817</v>
+        <v>1288.102847472898</v>
       </c>
       <c r="AD4" t="n">
-        <v>924382.4176288467</v>
+        <v>1040755.938942872</v>
       </c>
       <c r="AE4" t="n">
-        <v>1264780.804673885</v>
+        <v>1424008.190573152</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.893377000482765e-07</v>
+        <v>1.517662028020022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1144071.899806817</v>
+        <v>1288102.847472898</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>866.1869527804994</v>
+        <v>982.475133239953</v>
       </c>
       <c r="AB5" t="n">
-        <v>1185.155202265665</v>
+        <v>1344.265821042735</v>
       </c>
       <c r="AC5" t="n">
-        <v>1072.045653137203</v>
+        <v>1215.970977771345</v>
       </c>
       <c r="AD5" t="n">
-        <v>866186.9527804994</v>
+        <v>982475.1332399531</v>
       </c>
       <c r="AE5" t="n">
-        <v>1185155.202265665</v>
+        <v>1344265.821042735</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.154685756721341e-07</v>
+        <v>1.567903943097456e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.45963541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1072045.653137203</v>
+        <v>1215970.977771345</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>830.841140961685</v>
+        <v>935.6541258642774</v>
       </c>
       <c r="AB6" t="n">
-        <v>1136.793503187999</v>
+        <v>1280.203253154272</v>
       </c>
       <c r="AC6" t="n">
-        <v>1028.299526743438</v>
+        <v>1158.022451449779</v>
       </c>
       <c r="AD6" t="n">
-        <v>830841.140961685</v>
+        <v>935654.1258642774</v>
       </c>
       <c r="AE6" t="n">
-        <v>1136793.503187999</v>
+        <v>1280203.253154272</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.327754056095769e-07</v>
+        <v>1.601179838344637e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.05598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1028299.526743438</v>
+        <v>1158022.451449779</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>788.4796828488173</v>
+        <v>904.8531146542914</v>
       </c>
       <c r="AB7" t="n">
-        <v>1078.832687342339</v>
+        <v>1238.059950772058</v>
       </c>
       <c r="AC7" t="n">
-        <v>975.8704098135717</v>
+        <v>1119.901246698426</v>
       </c>
       <c r="AD7" t="n">
-        <v>788479.6828488173</v>
+        <v>904853.1146542914</v>
       </c>
       <c r="AE7" t="n">
-        <v>1078832.687342339</v>
+        <v>1238059.950772058</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.44817059115347e-07</v>
+        <v>1.62433236264338e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.78255208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>975870.4098135716</v>
+        <v>1119901.246698426</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>764.5030623467179</v>
+        <v>880.876494152192</v>
       </c>
       <c r="AB8" t="n">
-        <v>1046.026817397524</v>
+        <v>1205.254080827243</v>
       </c>
       <c r="AC8" t="n">
-        <v>946.195486052962</v>
+        <v>1090.226322937817</v>
       </c>
       <c r="AD8" t="n">
-        <v>764503.0623467179</v>
+        <v>880876.494152192</v>
       </c>
       <c r="AE8" t="n">
-        <v>1046026.817397524</v>
+        <v>1205254.080827243</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.522760590602169e-07</v>
+        <v>1.638673804820334e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>946195.486052962</v>
+        <v>1090226.322937817</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>755.2706876208201</v>
+        <v>871.6441194262943</v>
       </c>
       <c r="AB9" t="n">
-        <v>1033.394674993923</v>
+        <v>1192.621938423642</v>
       </c>
       <c r="AC9" t="n">
-        <v>934.7689375910383</v>
+        <v>1078.799774475893</v>
       </c>
       <c r="AD9" t="n">
-        <v>755270.6876208201</v>
+        <v>871644.1194262943</v>
       </c>
       <c r="AE9" t="n">
-        <v>1033394.674993924</v>
+        <v>1192621.938423642</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.541042453212143e-07</v>
+        <v>1.642188864177431e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.58072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>934768.9375910383</v>
+        <v>1078799.774475893</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>756.4199254265407</v>
+        <v>872.7933572320148</v>
       </c>
       <c r="AB10" t="n">
-        <v>1034.967112860504</v>
+        <v>1194.194376290223</v>
       </c>
       <c r="AC10" t="n">
-        <v>936.1913041945628</v>
+        <v>1080.222141079417</v>
       </c>
       <c r="AD10" t="n">
-        <v>756419.9254265407</v>
+        <v>872793.3572320149</v>
       </c>
       <c r="AE10" t="n">
-        <v>1034967.112860504</v>
+        <v>1194194.376290223</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.556886734140788e-07</v>
+        <v>1.645235248953581e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.54817708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>936191.3041945628</v>
+        <v>1080222.141079417</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1748.835304055995</v>
+        <v>1930.057543445946</v>
       </c>
       <c r="AB2" t="n">
-        <v>2392.83361617783</v>
+        <v>2640.789879072106</v>
       </c>
       <c r="AC2" t="n">
-        <v>2164.464934212891</v>
+        <v>2388.756599385338</v>
       </c>
       <c r="AD2" t="n">
-        <v>1748835.304055995</v>
+        <v>1930057.543445946</v>
       </c>
       <c r="AE2" t="n">
-        <v>2392833.61617783</v>
+        <v>2640789.879072106</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.23335556243839e-07</v>
+        <v>9.749344481516555e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2164464.93421289</v>
+        <v>2388756.599385338</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1224.698277672463</v>
+        <v>1369.727202090326</v>
       </c>
       <c r="AB3" t="n">
-        <v>1675.686213386238</v>
+        <v>1874.12118599934</v>
       </c>
       <c r="AC3" t="n">
-        <v>1515.761073021027</v>
+        <v>1695.257690353167</v>
       </c>
       <c r="AD3" t="n">
-        <v>1224698.277672463</v>
+        <v>1369727.202090326</v>
       </c>
       <c r="AE3" t="n">
-        <v>1675686.213386239</v>
+        <v>1874121.18599934</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.706920544120343e-07</v>
+        <v>1.249448427775529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.83854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1515761.073021027</v>
+        <v>1695257.690353167</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1095.438955469039</v>
+        <v>1216.367599371286</v>
       </c>
       <c r="AB4" t="n">
-        <v>1498.827906228682</v>
+        <v>1664.287811810979</v>
       </c>
       <c r="AC4" t="n">
-        <v>1355.781874476394</v>
+        <v>1505.450518894353</v>
       </c>
       <c r="AD4" t="n">
-        <v>1095438.955469039</v>
+        <v>1216367.599371286</v>
       </c>
       <c r="AE4" t="n">
-        <v>1498827.906228682</v>
+        <v>1664287.811810979</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.28124149578658e-07</v>
+        <v>1.356440065051895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.03515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1355781.874476394</v>
+        <v>1505450.518894353</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1023.84237235505</v>
+        <v>1144.685675402725</v>
       </c>
       <c r="AB5" t="n">
-        <v>1400.866302593799</v>
+        <v>1566.209441053898</v>
       </c>
       <c r="AC5" t="n">
-        <v>1267.16958880245</v>
+        <v>1416.73261018847</v>
       </c>
       <c r="AD5" t="n">
-        <v>1023842.37235505</v>
+        <v>1144685.675402725</v>
       </c>
       <c r="AE5" t="n">
-        <v>1400866.302593799</v>
+        <v>1566209.441053899</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.590400746294338e-07</v>
+        <v>1.414034088559123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.18229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1267169.58880245</v>
+        <v>1416732.61018847</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>971.0420509277972</v>
+        <v>1091.970605321493</v>
       </c>
       <c r="AB6" t="n">
-        <v>1328.62257343125</v>
+        <v>1494.082356543999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1201.820699756464</v>
+        <v>1351.489233393197</v>
       </c>
       <c r="AD6" t="n">
-        <v>971042.0509277972</v>
+        <v>1091970.605321493</v>
       </c>
       <c r="AE6" t="n">
-        <v>1328622.57343125</v>
+        <v>1494082.356543999</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.79344826013619e-07</v>
+        <v>1.451860300345072e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.65494791666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1201820.699756464</v>
+        <v>1351489.233393197</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>946.0514344777764</v>
+        <v>1066.80939667088</v>
       </c>
       <c r="AB7" t="n">
-        <v>1294.429309496145</v>
+        <v>1459.655680834047</v>
       </c>
       <c r="AC7" t="n">
-        <v>1170.890792940778</v>
+        <v>1320.34819129486</v>
       </c>
       <c r="AD7" t="n">
-        <v>946051.4344777764</v>
+        <v>1066809.39667088</v>
       </c>
       <c r="AE7" t="n">
-        <v>1294429.309496145</v>
+        <v>1459655.680834047</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.911324047430243e-07</v>
+        <v>1.473819665472258e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.36197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1170890.792940778</v>
+        <v>1320348.19129486</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>917.8625194405193</v>
+        <v>1026.698307903396</v>
       </c>
       <c r="AB8" t="n">
-        <v>1255.859992335008</v>
+        <v>1404.77391960603</v>
       </c>
       <c r="AC8" t="n">
-        <v>1136.002477277123</v>
+        <v>1270.704268331409</v>
       </c>
       <c r="AD8" t="n">
-        <v>917862.5194405194</v>
+        <v>1026698.307903396</v>
       </c>
       <c r="AE8" t="n">
-        <v>1255859.992335008</v>
+        <v>1404773.91960603</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.026141181560979e-07</v>
+        <v>1.495209226713907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.08203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1136002.477277123</v>
+        <v>1270704.268331409</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>888.4136297154618</v>
+        <v>1009.256843254586</v>
       </c>
       <c r="AB9" t="n">
-        <v>1215.566722219862</v>
+        <v>1380.909738210413</v>
       </c>
       <c r="AC9" t="n">
-        <v>1099.554740309807</v>
+        <v>1249.117650914601</v>
       </c>
       <c r="AD9" t="n">
-        <v>888413.6297154617</v>
+        <v>1009256.843254586</v>
       </c>
       <c r="AE9" t="n">
-        <v>1215566.722219862</v>
+        <v>1380909.738210413</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.083314467613782e-07</v>
+        <v>1.505860176266613e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.95182291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1099554.740309807</v>
+        <v>1249117.650914601</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>867.3522110194301</v>
+        <v>988.1954245585539</v>
       </c>
       <c r="AB10" t="n">
-        <v>1186.749559995735</v>
+        <v>1352.092575986287</v>
       </c>
       <c r="AC10" t="n">
-        <v>1073.48784760321</v>
+        <v>1223.050758208004</v>
       </c>
       <c r="AD10" t="n">
-        <v>867352.2110194301</v>
+        <v>988195.4245585538</v>
       </c>
       <c r="AE10" t="n">
-        <v>1186749.559995735</v>
+        <v>1352092.575986287</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.149663713156544e-07</v>
+        <v>1.518220537475927e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.79557291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1073487.84760321</v>
+        <v>1223050.758208004</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>848.2493719176829</v>
+        <v>969.0925854568067</v>
       </c>
       <c r="AB11" t="n">
-        <v>1160.612212778943</v>
+        <v>1325.955228769494</v>
       </c>
       <c r="AC11" t="n">
-        <v>1049.845012120791</v>
+        <v>1199.407922725585</v>
       </c>
       <c r="AD11" t="n">
-        <v>848249.3719176829</v>
+        <v>969092.5854568067</v>
       </c>
       <c r="AE11" t="n">
-        <v>1160612.212778943</v>
+        <v>1325955.228769494</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.195778791618888e-07</v>
+        <v>1.526811426827082e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.69140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1049845.012120791</v>
+        <v>1199407.922725585</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>833.574348636794</v>
+        <v>954.4175621759176</v>
       </c>
       <c r="AB12" t="n">
-        <v>1140.533198509695</v>
+        <v>1305.876214500247</v>
       </c>
       <c r="AC12" t="n">
-        <v>1031.682310792327</v>
+        <v>1181.245221397121</v>
       </c>
       <c r="AD12" t="n">
-        <v>833574.3486367939</v>
+        <v>954417.5621759177</v>
       </c>
       <c r="AE12" t="n">
-        <v>1140533.198509695</v>
+        <v>1305876.214500247</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.533035438499857e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.61328125</v>
       </c>
       <c r="AH12" t="n">
-        <v>1031682.310792327</v>
+        <v>1181245.221397121</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>833.0623058610736</v>
+        <v>953.9055194001974</v>
       </c>
       <c r="AB13" t="n">
-        <v>1139.832598994222</v>
+        <v>1305.175614984773</v>
       </c>
       <c r="AC13" t="n">
-        <v>1031.048575511313</v>
+        <v>1180.611486116106</v>
       </c>
       <c r="AD13" t="n">
-        <v>833062.3058610735</v>
+        <v>953905.5194001973</v>
       </c>
       <c r="AE13" t="n">
-        <v>1139832.598994222</v>
+        <v>1305175.614984773</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.225894761226949e-07</v>
+        <v>1.532421803546203e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1031048.575511313</v>
+        <v>1180611.486116106</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>836.059293989226</v>
+        <v>956.9025075283497</v>
       </c>
       <c r="AB14" t="n">
-        <v>1143.933210368945</v>
+        <v>1309.276226359496</v>
       </c>
       <c r="AC14" t="n">
-        <v>1034.757830291676</v>
+        <v>1184.32074089647</v>
       </c>
       <c r="AD14" t="n">
-        <v>836059.293989226</v>
+        <v>956902.5075283498</v>
       </c>
       <c r="AE14" t="n">
-        <v>1143933.210368945</v>
+        <v>1309276.226359496</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.224718356164135e-07</v>
+        <v>1.532202648205612e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.62630208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>1034757.830291676</v>
+        <v>1184320.74089647</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1041.779025678143</v>
+        <v>1175.224827547452</v>
       </c>
       <c r="AB2" t="n">
-        <v>1425.408022979752</v>
+        <v>1607.994456310619</v>
       </c>
       <c r="AC2" t="n">
-        <v>1289.369081839288</v>
+        <v>1454.529722234727</v>
       </c>
       <c r="AD2" t="n">
-        <v>1041779.025678143</v>
+        <v>1175224.827547452</v>
       </c>
       <c r="AE2" t="n">
-        <v>1425408.022979752</v>
+        <v>1607994.456310619</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.044340958288371e-07</v>
+        <v>1.412036281835614e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.52213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1289369.081839288</v>
+        <v>1454529.722234727</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>829.4396436912727</v>
+        <v>940.5592272363424</v>
       </c>
       <c r="AB3" t="n">
-        <v>1134.875912792925</v>
+        <v>1286.914629249332</v>
       </c>
       <c r="AC3" t="n">
-        <v>1026.564948484315</v>
+        <v>1164.093303229801</v>
       </c>
       <c r="AD3" t="n">
-        <v>829439.6436912727</v>
+        <v>940559.2272363424</v>
       </c>
       <c r="AE3" t="n">
-        <v>1134875.912792925</v>
+        <v>1286914.629249332</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.173726354202571e-07</v>
+        <v>1.638421285720153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.2734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1026564.948484315</v>
+        <v>1164093.303229801</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>751.738915634848</v>
+        <v>862.7731583253465</v>
       </c>
       <c r="AB4" t="n">
-        <v>1028.562348751933</v>
+        <v>1180.484298086142</v>
       </c>
       <c r="AC4" t="n">
-        <v>930.3978017833711</v>
+        <v>1067.820533496919</v>
       </c>
       <c r="AD4" t="n">
-        <v>751738.9156348481</v>
+        <v>862773.1583253464</v>
       </c>
       <c r="AE4" t="n">
-        <v>1028562.348751933</v>
+        <v>1180484.298086142</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60771375560751e-07</v>
+        <v>1.725413945540559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.25130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>930397.801783371</v>
+        <v>1067820.533496919</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>697.5143944826998</v>
+        <v>808.6338885192187</v>
       </c>
       <c r="AB5" t="n">
-        <v>954.3699666945247</v>
+        <v>1106.408560681384</v>
       </c>
       <c r="AC5" t="n">
-        <v>863.2862365398596</v>
+        <v>1000.814480504119</v>
       </c>
       <c r="AD5" t="n">
-        <v>697514.3944826998</v>
+        <v>808633.8885192187</v>
       </c>
       <c r="AE5" t="n">
-        <v>954369.9666945247</v>
+        <v>1106408.560681384</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.832979943433534e-07</v>
+        <v>1.770568493306576e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.76302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>863286.2365398596</v>
+        <v>1000814.480504119</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>675.9989656721758</v>
+        <v>787.1184597086947</v>
       </c>
       <c r="AB6" t="n">
-        <v>924.9316078022376</v>
+        <v>1076.970201789097</v>
       </c>
       <c r="AC6" t="n">
-        <v>836.6574333032561</v>
+        <v>974.185677267516</v>
       </c>
       <c r="AD6" t="n">
-        <v>675998.9656721759</v>
+        <v>787118.4597086947</v>
       </c>
       <c r="AE6" t="n">
-        <v>924931.6078022376</v>
+        <v>1076970.201789096</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.91570481466908e-07</v>
+        <v>1.787150671864718e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.58723958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>836657.4333032561</v>
+        <v>974185.677267516</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.844525686759</v>
+        <v>785.9640197232776</v>
       </c>
       <c r="AB7" t="n">
-        <v>923.3520520838925</v>
+        <v>1075.390646070751</v>
       </c>
       <c r="AC7" t="n">
-        <v>835.2286281657493</v>
+        <v>972.7568721300094</v>
       </c>
       <c r="AD7" t="n">
-        <v>674844.5256867589</v>
+        <v>785964.0197232777</v>
       </c>
       <c r="AE7" t="n">
-        <v>923352.0520838925</v>
+        <v>1075390.646070751</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929195332132107e-07</v>
+        <v>1.789854842521891e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56119791666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>835228.6281657494</v>
+        <v>972756.8721300093</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>820.4093337374393</v>
+        <v>937.5070728130319</v>
       </c>
       <c r="AB2" t="n">
-        <v>1122.520244324932</v>
+        <v>1282.738536915808</v>
       </c>
       <c r="AC2" t="n">
-        <v>1015.388487673618</v>
+        <v>1160.315771287407</v>
       </c>
       <c r="AD2" t="n">
-        <v>820409.3337374392</v>
+        <v>937507.0728130318</v>
       </c>
       <c r="AE2" t="n">
-        <v>1122520.244324932</v>
+        <v>1282738.536915808</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.934973105407453e-07</v>
+        <v>1.660045997320135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1015388.487673618</v>
+        <v>1160315.771287407</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>674.6655479424646</v>
+        <v>780.9474458105929</v>
       </c>
       <c r="AB3" t="n">
-        <v>923.1071668382082</v>
+        <v>1068.526748327794</v>
       </c>
       <c r="AC3" t="n">
-        <v>835.0071144242147</v>
+        <v>966.5480551540994</v>
       </c>
       <c r="AD3" t="n">
-        <v>674665.5479424646</v>
+        <v>780947.4458105928</v>
       </c>
       <c r="AE3" t="n">
-        <v>923107.1668382082</v>
+        <v>1068526.748327794</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.901158890688462e-07</v>
+        <v>1.862178105925561e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>835007.1144242147</v>
+        <v>966548.0551540994</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>613.0609746769267</v>
+        <v>719.4281238910755</v>
       </c>
       <c r="AB4" t="n">
-        <v>838.8170718943395</v>
+        <v>984.353298036575</v>
       </c>
       <c r="AC4" t="n">
-        <v>758.7615478398975</v>
+        <v>890.4080008204943</v>
       </c>
       <c r="AD4" t="n">
-        <v>613060.9746769266</v>
+        <v>719428.1238910755</v>
       </c>
       <c r="AE4" t="n">
-        <v>838817.0718943395</v>
+        <v>984353.298036575</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.221983479105043e-07</v>
+        <v>1.929296616192456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.71744791666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>758761.5478398975</v>
+        <v>890408.0008204943</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>609.9952037586473</v>
+        <v>716.3623529727962</v>
       </c>
       <c r="AB5" t="n">
-        <v>834.6223488716826</v>
+        <v>980.158575013918</v>
       </c>
       <c r="AC5" t="n">
-        <v>754.9671632951922</v>
+        <v>886.613616275789</v>
       </c>
       <c r="AD5" t="n">
-        <v>609995.2037586473</v>
+        <v>716362.3529727962</v>
       </c>
       <c r="AE5" t="n">
-        <v>834622.3488716825</v>
+        <v>980158.575013918</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.24876305218775e-07</v>
+        <v>1.93489907035523e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.66536458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>754967.1632951922</v>
+        <v>886613.616275789</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>675.4735887808591</v>
+        <v>788.3074851581215</v>
       </c>
       <c r="AB2" t="n">
-        <v>924.2127639615453</v>
+        <v>1078.597078865103</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.0071949098159</v>
+        <v>975.6572874787245</v>
       </c>
       <c r="AD2" t="n">
-        <v>675473.5887808591</v>
+        <v>788307.4851581214</v>
       </c>
       <c r="AE2" t="n">
-        <v>924212.7639615453</v>
+        <v>1078597.078865103</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.670251120299925e-07</v>
+        <v>1.884787542397158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.59244791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>836007.1949098159</v>
+        <v>975657.2874787245</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.4664868898635</v>
+        <v>664.0349980642318</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.223217515924</v>
+        <v>908.561979508049</v>
       </c>
       <c r="AC3" t="n">
-        <v>694.905071844261</v>
+        <v>821.8500993585473</v>
       </c>
       <c r="AD3" t="n">
-        <v>561466.4868898635</v>
+        <v>664034.9980642318</v>
       </c>
       <c r="AE3" t="n">
-        <v>768223.217515924</v>
+        <v>908561.9795080491</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44975362524733e-07</v>
+        <v>2.054240144196934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.89973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>694905.071844261</v>
+        <v>821850.0993585472</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>560.8491659918457</v>
+        <v>663.4176771662139</v>
       </c>
       <c r="AB4" t="n">
-        <v>767.3785718289799</v>
+        <v>907.7173338211051</v>
       </c>
       <c r="AC4" t="n">
-        <v>694.1410379562113</v>
+        <v>821.0860654704975</v>
       </c>
       <c r="AD4" t="n">
-        <v>560849.1659918457</v>
+        <v>663417.677166214</v>
       </c>
       <c r="AE4" t="n">
-        <v>767378.57182898</v>
+        <v>907717.3338211051</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.475810183294481e-07</v>
+        <v>2.059904464102275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.84114583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>694141.0379562114</v>
+        <v>821086.0654704975</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.6934904213419</v>
+        <v>565.8172638317477</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.0235991257207</v>
+        <v>774.1761424705419</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.5588907179595</v>
+        <v>700.2898579961929</v>
       </c>
       <c r="AD2" t="n">
-        <v>470693.4904213419</v>
+        <v>565817.2638317477</v>
       </c>
       <c r="AE2" t="n">
-        <v>644023.5991257207</v>
+        <v>774176.1424705419</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.712370889711711e-07</v>
+        <v>2.310113604091582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.73307291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>582558.8907179595</v>
+        <v>700289.857996193</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1283.449880548811</v>
+        <v>1433.252212463807</v>
       </c>
       <c r="AB2" t="n">
-        <v>1756.072748379446</v>
+        <v>1961.038907718002</v>
       </c>
       <c r="AC2" t="n">
-        <v>1588.475629937693</v>
+        <v>1773.880106700789</v>
       </c>
       <c r="AD2" t="n">
-        <v>1283449.880548811</v>
+        <v>1433252.212463807</v>
       </c>
       <c r="AE2" t="n">
-        <v>1756072.748379447</v>
+        <v>1961038.907718002</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.275915650507852e-07</v>
+        <v>1.217890506496179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.54036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1588475.629937693</v>
+        <v>1773880.106700789</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>976.6453147350043</v>
+        <v>1103.230541847101</v>
       </c>
       <c r="AB3" t="n">
-        <v>1336.289206170823</v>
+        <v>1509.488698451677</v>
       </c>
       <c r="AC3" t="n">
-        <v>1208.755639827559</v>
+        <v>1365.425215652143</v>
       </c>
       <c r="AD3" t="n">
-        <v>976645.3147350042</v>
+        <v>1103230.541847101</v>
       </c>
       <c r="AE3" t="n">
-        <v>1336289.206170823</v>
+        <v>1509488.698451677</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.571129530835868e-07</v>
+        <v>1.469236887897261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1208755.639827559</v>
+        <v>1365425.215652143</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>874.1184813336829</v>
+        <v>1000.703618937229</v>
       </c>
       <c r="AB4" t="n">
-        <v>1196.007469546475</v>
+        <v>1369.20683935778</v>
       </c>
       <c r="AC4" t="n">
-        <v>1081.862195259985</v>
+        <v>1238.531660303341</v>
       </c>
       <c r="AD4" t="n">
-        <v>874118.4813336829</v>
+        <v>1000703.618937229</v>
       </c>
       <c r="AE4" t="n">
-        <v>1196007.469546475</v>
+        <v>1369206.83935778</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.056619318330041e-07</v>
+        <v>1.563449977447334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1081862.195259985</v>
+        <v>1238531.660303341</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>828.7242438059279</v>
+        <v>943.7862146168717</v>
       </c>
       <c r="AB5" t="n">
-        <v>1133.897071108581</v>
+        <v>1291.329935748007</v>
       </c>
       <c r="AC5" t="n">
-        <v>1025.679526076512</v>
+        <v>1168.087219073165</v>
       </c>
       <c r="AD5" t="n">
-        <v>828724.2438059279</v>
+        <v>943786.2146168717</v>
       </c>
       <c r="AE5" t="n">
-        <v>1133897.071108581</v>
+        <v>1291329.935748007</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.313150940322399e-07</v>
+        <v>1.613231944643671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.28385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1025679.526076512</v>
+        <v>1168087.219073165</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>783.2035410905411</v>
+        <v>898.3507632475054</v>
       </c>
       <c r="AB6" t="n">
-        <v>1071.613637421719</v>
+        <v>1229.163146713795</v>
       </c>
       <c r="AC6" t="n">
-        <v>969.3403358853755</v>
+        <v>1111.853541132741</v>
       </c>
       <c r="AD6" t="n">
-        <v>783203.5410905411</v>
+        <v>898350.7632475054</v>
       </c>
       <c r="AE6" t="n">
-        <v>1071613.637421719</v>
+        <v>1229163.146713795</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.468497824657502e-07</v>
+        <v>1.643378222283679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.92578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>969340.3358853755</v>
+        <v>1111853.541132741</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>756.0713037044303</v>
+        <v>871.2185258613945</v>
       </c>
       <c r="AB7" t="n">
-        <v>1034.490113240208</v>
+        <v>1192.039622532284</v>
       </c>
       <c r="AC7" t="n">
-        <v>935.7598287485546</v>
+        <v>1078.27303399592</v>
       </c>
       <c r="AD7" t="n">
-        <v>756071.3037044303</v>
+        <v>871218.5258613945</v>
       </c>
       <c r="AE7" t="n">
-        <v>1034490.113240208</v>
+        <v>1192039.622532284</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.565251113950207e-07</v>
+        <v>1.662153954633162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.7109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>935759.8287485546</v>
+        <v>1078273.03399592</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>735.8206449713336</v>
+        <v>850.9678671282979</v>
       </c>
       <c r="AB8" t="n">
-        <v>1006.782268565575</v>
+        <v>1164.33177785765</v>
       </c>
       <c r="AC8" t="n">
-        <v>910.696381881464</v>
+        <v>1053.209587128829</v>
       </c>
       <c r="AD8" t="n">
-        <v>735820.6449713337</v>
+        <v>850967.8671282979</v>
       </c>
       <c r="AE8" t="n">
-        <v>1006782.268565575</v>
+        <v>1164331.77785765</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.623598517416799e-07</v>
+        <v>1.673476724523307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.58723958333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>910696.381881464</v>
+        <v>1053209.587128829</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>735.9355640371035</v>
+        <v>851.0827861940678</v>
       </c>
       <c r="AB9" t="n">
-        <v>1006.939505901232</v>
+        <v>1164.489015193308</v>
       </c>
       <c r="AC9" t="n">
-        <v>910.8386127064906</v>
+        <v>1053.351817953856</v>
       </c>
       <c r="AD9" t="n">
-        <v>735935.5640371036</v>
+        <v>851082.7861940678</v>
       </c>
       <c r="AE9" t="n">
-        <v>1006939.505901232</v>
+        <v>1164489.015193308</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.640093352995962e-07</v>
+        <v>1.676677676348791e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.54817708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>910838.6127064906</v>
+        <v>1053351.817953856</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1645.245209782956</v>
+        <v>1824.791737289659</v>
       </c>
       <c r="AB2" t="n">
-        <v>2251.097079121038</v>
+        <v>2496.760559089465</v>
       </c>
       <c r="AC2" t="n">
-        <v>2036.25553332432</v>
+        <v>2258.473235555419</v>
       </c>
       <c r="AD2" t="n">
-        <v>1645245.209782956</v>
+        <v>1824791.737289659</v>
       </c>
       <c r="AE2" t="n">
-        <v>2251097.079121038</v>
+        <v>2496760.559089465</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.425871136877953e-07</v>
+        <v>1.018106243811866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.46354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2036255.53332432</v>
+        <v>2258473.235555419</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1175.805477040143</v>
+        <v>1319.391512434473</v>
       </c>
       <c r="AB3" t="n">
-        <v>1608.788926562967</v>
+        <v>1805.249674758299</v>
       </c>
       <c r="AC3" t="n">
-        <v>1455.248369361236</v>
+        <v>1632.959179483198</v>
       </c>
       <c r="AD3" t="n">
-        <v>1175805.477040143</v>
+        <v>1319391.512434473</v>
       </c>
       <c r="AE3" t="n">
-        <v>1608788.926562967</v>
+        <v>1805249.674758299</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.868041161847611e-07</v>
+        <v>1.288713906622077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.48697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1455248.369361236</v>
+        <v>1632959.179483198</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1044.502845372202</v>
+        <v>1176.272642262999</v>
       </c>
       <c r="AB4" t="n">
-        <v>1429.134873251607</v>
+        <v>1609.428122630754</v>
       </c>
       <c r="AC4" t="n">
-        <v>1292.740246751865</v>
+        <v>1455.826561453431</v>
       </c>
       <c r="AD4" t="n">
-        <v>1044502.845372202</v>
+        <v>1176272.642262999</v>
       </c>
       <c r="AE4" t="n">
-        <v>1429134.873251607</v>
+        <v>1609428.122630754</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.417721692832099e-07</v>
+        <v>1.391855534312693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.8203125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1292740.246751865</v>
+        <v>1455826.561453431</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>988.1811668950648</v>
+        <v>1107.964222590289</v>
       </c>
       <c r="AB5" t="n">
-        <v>1352.073068022097</v>
+        <v>1515.965529279762</v>
       </c>
       <c r="AC5" t="n">
-        <v>1223.033112056537</v>
+        <v>1371.283906836284</v>
       </c>
       <c r="AD5" t="n">
-        <v>988181.1668950649</v>
+        <v>1107964.222590289</v>
       </c>
       <c r="AE5" t="n">
-        <v>1352073.068022097</v>
+        <v>1515965.529279762</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.720437427634087e-07</v>
+        <v>1.448656879557936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.00651041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1223033.112056537</v>
+        <v>1371283.906836284</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>940.498987774828</v>
+        <v>1060.367294816073</v>
       </c>
       <c r="AB6" t="n">
-        <v>1286.832206960511</v>
+        <v>1450.841312870824</v>
       </c>
       <c r="AC6" t="n">
-        <v>1164.018747208544</v>
+        <v>1312.375054239004</v>
       </c>
       <c r="AD6" t="n">
-        <v>940498.987774828</v>
+        <v>1060367.294816073</v>
       </c>
       <c r="AE6" t="n">
-        <v>1286832.20696051</v>
+        <v>1450841.312870824</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.902873477839987e-07</v>
+        <v>1.482889038251973e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.54427083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1164018.747208545</v>
+        <v>1312375.054239004</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>909.7442580560031</v>
+        <v>1029.441972896655</v>
       </c>
       <c r="AB7" t="n">
-        <v>1244.752228956297</v>
+        <v>1408.527923091764</v>
       </c>
       <c r="AC7" t="n">
-        <v>1125.954823245434</v>
+        <v>1274.099994993242</v>
       </c>
       <c r="AD7" t="n">
-        <v>909744.2580560031</v>
+        <v>1029441.972896656</v>
       </c>
       <c r="AE7" t="n">
-        <v>1244752.228956297</v>
+        <v>1408527.923091765</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.040946015186975e-07</v>
+        <v>1.508796861866966e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.20572916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1125954.823245434</v>
+        <v>1274099.994993242</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>874.2010493407646</v>
+        <v>993.9840155274378</v>
       </c>
       <c r="AB8" t="n">
-        <v>1196.120442736407</v>
+        <v>1360.012781524524</v>
       </c>
       <c r="AC8" t="n">
-        <v>1081.964386447229</v>
+        <v>1230.21507044575</v>
       </c>
       <c r="AD8" t="n">
-        <v>874201.0493407646</v>
+        <v>993984.0155274378</v>
       </c>
       <c r="AE8" t="n">
-        <v>1196120.442736407</v>
+        <v>1360012.781524524</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.135603991821766e-07</v>
+        <v>1.526558411046317e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1081964.386447229</v>
+        <v>1230215.07044575</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>850.6808051200035</v>
+        <v>970.4637713066767</v>
       </c>
       <c r="AB9" t="n">
-        <v>1163.93900695362</v>
+        <v>1327.831345741736</v>
       </c>
       <c r="AC9" t="n">
-        <v>1052.854301728622</v>
+        <v>1201.104985727143</v>
       </c>
       <c r="AD9" t="n">
-        <v>850680.8051200035</v>
+        <v>970463.7713066767</v>
       </c>
       <c r="AE9" t="n">
-        <v>1163939.00695362</v>
+        <v>1327831.345741736</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.211045687485585e-07</v>
+        <v>1.540714232196777e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.80859375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1052854.301728622</v>
+        <v>1201104.985727143</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>830.174566740556</v>
+        <v>949.9575329272291</v>
       </c>
       <c r="AB10" t="n">
-        <v>1135.881466931471</v>
+        <v>1299.773805719587</v>
       </c>
       <c r="AC10" t="n">
-        <v>1027.474533947182</v>
+        <v>1175.725217945703</v>
       </c>
       <c r="AD10" t="n">
-        <v>830174.5667405559</v>
+        <v>949957.5329272291</v>
       </c>
       <c r="AE10" t="n">
-        <v>1135881.466931471</v>
+        <v>1299773.805719587</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.25659539052789e-07</v>
+        <v>1.549261143080074e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.70442708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1027474.533947182</v>
+        <v>1175725.217945703</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>813.5876684797444</v>
+        <v>933.3706346664175</v>
       </c>
       <c r="AB11" t="n">
-        <v>1113.186540968723</v>
+        <v>1277.078879756839</v>
       </c>
       <c r="AC11" t="n">
-        <v>1006.94557986579</v>
+        <v>1155.196263864311</v>
       </c>
       <c r="AD11" t="n">
-        <v>813587.6684797443</v>
+        <v>933370.6346664175</v>
       </c>
       <c r="AE11" t="n">
-        <v>1113186.540968722</v>
+        <v>1277078.879756839</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.300247189276765e-07</v>
+        <v>1.557451932676566e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.60677083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>1006945.57986579</v>
+        <v>1155196.263864311</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>814.0176146192714</v>
+        <v>933.8005808059445</v>
       </c>
       <c r="AB12" t="n">
-        <v>1113.774812244709</v>
+        <v>1277.667151032825</v>
       </c>
       <c r="AC12" t="n">
-        <v>1007.477707356839</v>
+        <v>1155.72839135536</v>
       </c>
       <c r="AD12" t="n">
-        <v>814017.6146192714</v>
+        <v>933800.5808059445</v>
       </c>
       <c r="AE12" t="n">
-        <v>1113774.812244708</v>
+        <v>1277667.151032825</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.301433379460159e-07</v>
+        <v>1.557674508480819e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.60677083333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1007477.707356839</v>
+        <v>1155728.39135536</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>816.4137240353259</v>
+        <v>936.1966902219992</v>
       </c>
       <c r="AB13" t="n">
-        <v>1117.053274856641</v>
+        <v>1280.945613644758</v>
       </c>
       <c r="AC13" t="n">
-        <v>1010.443278098441</v>
+        <v>1158.693962096962</v>
       </c>
       <c r="AD13" t="n">
-        <v>816413.7240353259</v>
+        <v>936196.6902219992</v>
       </c>
       <c r="AE13" t="n">
-        <v>1117053.274856641</v>
+        <v>1280945.613644758</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.302619569643552e-07</v>
+        <v>1.557897084285072e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.60026041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>1010443.278098441</v>
+        <v>1158693.962096961</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.6755450469289</v>
+        <v>535.3523267879247</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.7422572648449</v>
+        <v>732.4926715890169</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.980890957488</v>
+        <v>662.5845990724819</v>
       </c>
       <c r="AD2" t="n">
-        <v>434675.5450469289</v>
+        <v>535352.3267879246</v>
       </c>
       <c r="AE2" t="n">
-        <v>594742.2572648448</v>
+        <v>732492.6715890169</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.510913754849748e-07</v>
+        <v>2.378607352208865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.86588541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>537980.890957488</v>
+        <v>662584.5990724819</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>896.9250197904</v>
+        <v>1015.793185162152</v>
       </c>
       <c r="AB2" t="n">
-        <v>1227.212381616421</v>
+        <v>1389.853049571398</v>
       </c>
       <c r="AC2" t="n">
-        <v>1110.088954318345</v>
+        <v>1257.20742519131</v>
       </c>
       <c r="AD2" t="n">
-        <v>896925.0197904001</v>
+        <v>1015793.185162152</v>
       </c>
       <c r="AE2" t="n">
-        <v>1227212.381616421</v>
+        <v>1389853.049571398</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.619174166483575e-07</v>
+        <v>1.569003932556851e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.32421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1110088.954318345</v>
+        <v>1257207.42519131</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>722.8609588952355</v>
+        <v>831.0004286386647</v>
       </c>
       <c r="AB3" t="n">
-        <v>989.0502543352588</v>
+        <v>1137.011447614919</v>
       </c>
       <c r="AC3" t="n">
-        <v>894.6566862022513</v>
+        <v>1028.49667086014</v>
       </c>
       <c r="AD3" t="n">
-        <v>722860.9588952356</v>
+        <v>831000.4286386648</v>
       </c>
       <c r="AE3" t="n">
-        <v>989050.2543352589</v>
+        <v>1137011.447614919</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.65279623028828e-07</v>
+        <v>1.781856014350853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>894656.6862022514</v>
+        <v>1028496.67086014</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>652.2748263420242</v>
+        <v>760.3289552308817</v>
       </c>
       <c r="AB4" t="n">
-        <v>892.4711937355646</v>
+        <v>1040.315619893027</v>
       </c>
       <c r="AC4" t="n">
-        <v>807.2949955966291</v>
+        <v>941.0293572225788</v>
       </c>
       <c r="AD4" t="n">
-        <v>652274.8263420241</v>
+        <v>760328.9552308817</v>
       </c>
       <c r="AE4" t="n">
-        <v>892471.1937355646</v>
+        <v>1040315.619893027</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.031912917492686e-07</v>
+        <v>1.859926886616551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.83463541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>807294.9955966291</v>
+        <v>941029.3572225788</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>630.865886255502</v>
+        <v>738.9200151443596</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.1785374134076</v>
+        <v>1011.02296357087</v>
       </c>
       <c r="AC5" t="n">
-        <v>780.7979892813572</v>
+        <v>914.532350907307</v>
       </c>
       <c r="AD5" t="n">
-        <v>630865.886255502</v>
+        <v>738920.0151443596</v>
       </c>
       <c r="AE5" t="n">
-        <v>863178.5374134076</v>
+        <v>1011022.96357087</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.134334517343909e-07</v>
+        <v>1.881018397249323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>780797.9892813573</v>
+        <v>914532.350907307</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>634.0941247867036</v>
+        <v>742.1482536755611</v>
       </c>
       <c r="AB6" t="n">
-        <v>867.5955557916302</v>
+        <v>1015.439981949093</v>
       </c>
       <c r="AC6" t="n">
-        <v>784.7934536248864</v>
+        <v>918.5278152508362</v>
       </c>
       <c r="AD6" t="n">
-        <v>634094.1247867036</v>
+        <v>742148.2536755612</v>
       </c>
       <c r="AE6" t="n">
-        <v>867595.5557916302</v>
+        <v>1015439.981949093</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.130676603063511e-07</v>
+        <v>1.880265129012439e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.6328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>784793.4536248865</v>
+        <v>918527.8152508362</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1124.132848998321</v>
+        <v>1259.183285597583</v>
       </c>
       <c r="AB2" t="n">
-        <v>1538.088157240685</v>
+        <v>1722.870122600563</v>
       </c>
       <c r="AC2" t="n">
-        <v>1391.29518223392</v>
+        <v>1558.441816162969</v>
       </c>
       <c r="AD2" t="n">
-        <v>1124132.848998321</v>
+        <v>1259183.285597583</v>
       </c>
       <c r="AE2" t="n">
-        <v>1538088.157240685</v>
+        <v>1722870.122600563</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773151836392608e-07</v>
+        <v>1.341886080495371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1391295.18223392</v>
+        <v>1558441.816162969</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>873.7042356822188</v>
+        <v>997.4932754441562</v>
       </c>
       <c r="AB3" t="n">
-        <v>1195.440680370913</v>
+        <v>1364.814305760199</v>
       </c>
       <c r="AC3" t="n">
-        <v>1081.349499647845</v>
+        <v>1234.558343947354</v>
       </c>
       <c r="AD3" t="n">
-        <v>873704.2356822188</v>
+        <v>997493.2754441563</v>
       </c>
       <c r="AE3" t="n">
-        <v>1195440.680370913</v>
+        <v>1364814.305760199</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.971817333158098e-07</v>
+        <v>1.579363784248777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1081349.499647845</v>
+        <v>1234558.343947354</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>794.060663896331</v>
+        <v>906.5031449834742</v>
       </c>
       <c r="AB4" t="n">
-        <v>1086.468831827054</v>
+        <v>1240.317595062646</v>
       </c>
       <c r="AC4" t="n">
-        <v>982.7777713860615</v>
+        <v>1121.943424586545</v>
       </c>
       <c r="AD4" t="n">
-        <v>794060.663896331</v>
+        <v>906503.1449834742</v>
       </c>
       <c r="AE4" t="n">
-        <v>1086468.831827054</v>
+        <v>1240317.595062646</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413550095449848e-07</v>
+        <v>1.666879177279413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.46614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>982777.7713860616</v>
+        <v>1121943.424586545</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>740.7056894747554</v>
+        <v>853.2334219079193</v>
       </c>
       <c r="AB5" t="n">
-        <v>1013.466201968109</v>
+        <v>1167.431609856351</v>
       </c>
       <c r="AC5" t="n">
-        <v>916.7424100610205</v>
+        <v>1056.013575512216</v>
       </c>
       <c r="AD5" t="n">
-        <v>740705.6894747554</v>
+        <v>853233.4219079192</v>
       </c>
       <c r="AE5" t="n">
-        <v>1013466.201968109</v>
+        <v>1167431.609856351</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.636932039023353e-07</v>
+        <v>1.711135253026112e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.96484375</v>
       </c>
       <c r="AH5" t="n">
-        <v>916742.4100610204</v>
+        <v>1056013.575512215</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>705.9782233201078</v>
+        <v>818.5059557532717</v>
       </c>
       <c r="AB6" t="n">
-        <v>965.9505507076418</v>
+        <v>1119.915958595883</v>
       </c>
       <c r="AC6" t="n">
-        <v>873.7615858682163</v>
+        <v>1013.032751319412</v>
       </c>
       <c r="AD6" t="n">
-        <v>705978.2233201078</v>
+        <v>818505.9557532717</v>
       </c>
       <c r="AE6" t="n">
-        <v>965950.5507076418</v>
+        <v>1119915.958595884</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.781576878612054e-07</v>
+        <v>1.739792058830564e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.65234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>873761.5858682164</v>
+        <v>1013032.751319412</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>695.9045228819651</v>
+        <v>808.4322553151291</v>
       </c>
       <c r="AB7" t="n">
-        <v>952.1672693478772</v>
+        <v>1106.132677236119</v>
       </c>
       <c r="AC7" t="n">
-        <v>861.2937615364708</v>
+        <v>1000.564926987666</v>
       </c>
       <c r="AD7" t="n">
-        <v>695904.5228819652</v>
+        <v>808432.2553151291</v>
       </c>
       <c r="AE7" t="n">
-        <v>952167.2693478772</v>
+        <v>1106132.677236119</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.821322764968601e-07</v>
+        <v>1.747666450686395e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>861293.7615364708</v>
+        <v>1000564.926987666</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>699.5387393187025</v>
+        <v>812.0664717518664</v>
       </c>
       <c r="AB8" t="n">
-        <v>957.1397646069349</v>
+        <v>1111.105172495177</v>
       </c>
       <c r="AC8" t="n">
-        <v>865.7916888269451</v>
+        <v>1005.06285427814</v>
       </c>
       <c r="AD8" t="n">
-        <v>699538.7393187025</v>
+        <v>812066.4717518664</v>
       </c>
       <c r="AE8" t="n">
-        <v>957139.764606935</v>
+        <v>1111105.172495177</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.819813427512024e-07</v>
+        <v>1.747367423147566e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>865791.6888269451</v>
+        <v>1005062.85427814</v>
       </c>
     </row>
   </sheetData>
